--- a/Testovani/jednotlive_svaly.xlsx
+++ b/Testovani/jednotlive_svaly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Škola\6.semester\Bakalarka\Testovani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E34677-93A1-4B6B-BABD-07B4AE872DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10974A52-F44C-4B30-886B-4C96A000B9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-225" yWindow="480" windowWidth="23445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -196,104 +196,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -328,7 +230,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E2496E5-FBA8-49DF-8606-2108AED8FF44}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E2496E5-FBA8-49DF-8606-2108AED8FF44}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B2:H12" xr:uid="{2E2496E5-FBA8-49DF-8606-2108AED8FF44}"/>
   <tableColumns count="7">
     <tableColumn id="5" xr3:uid="{71BCF544-2177-4416-9BF5-CC085523D454}" name="Počáteční hodnota v mbar">
@@ -613,7 +515,7 @@
   <dimension ref="A2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="P3" sqref="P3:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,28 +970,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G12">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
-      <formula>F3-5</formula>
-      <formula>F3+5</formula>
+  <conditionalFormatting sqref="D3:D12">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+      <formula>$C3-1</formula>
+      <formula>$C3+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notBetween">
+  <conditionalFormatting sqref="G3:G12">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
       <formula>F3-10</formula>
       <formula>F3+10</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
-      <formula>F4-10</formula>
-      <formula>F4+10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D12">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
-      <formula>$C3-1</formula>
-      <formula>$C3+1</formula>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+      <formula>F3-5</formula>
+      <formula>F3+5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M8">
@@ -1100,8 +994,8 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P8">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
-      <formula>$O3-5</formula>
-      <formula>$O3+5</formula>
+      <formula>$O3-10</formula>
+      <formula>$O3+10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testovani/jednotlive_svaly.xlsx
+++ b/Testovani/jednotlive_svaly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Škola\6.semester\Bakalarka\Testovani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10974A52-F44C-4B30-886B-4C96A000B9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD4EE0-94F3-45BC-998F-F3C77954930A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-225" yWindow="480" windowWidth="23445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -230,7 +265,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E2496E5-FBA8-49DF-8606-2108AED8FF44}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E2496E5-FBA8-49DF-8606-2108AED8FF44}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B2:H12" xr:uid="{2E2496E5-FBA8-49DF-8606-2108AED8FF44}"/>
   <tableColumns count="7">
     <tableColumn id="5" xr3:uid="{71BCF544-2177-4416-9BF5-CC085523D454}" name="Počáteční hodnota v mbar">
@@ -515,7 +550,7 @@
   <dimension ref="A2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P8"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,29 +1006,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:D12">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
       <formula>$C3-1</formula>
       <formula>$C3+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="notBetween">
       <formula>F3-10</formula>
       <formula>F3+10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
-      <formula>F3-5</formula>
-      <formula>F3+5</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+      <formula>F3-10</formula>
+      <formula>F3+10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M8">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
       <formula>$L3-1</formula>
       <formula>$L3+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P8">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="between">
       <formula>$O3-10</formula>
       <formula>$O3+10</formula>
     </cfRule>
